--- a/Ganadería/17.27.xlsx
+++ b/Ganadería/17.27.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rojas.DESKTOP-91OCPB2\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076BB779-BFCE-4547-B3BC-5EC64237E2C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C90D5F-1B5E-42A1-81CC-04E30948859E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5115" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{89A23BD0-3146-46A4-9135-22970208F1B7}"/>
   </bookViews>
@@ -11335,7 +11335,7 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection sqref="A1:M2"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
